--- a/Internship_Factor/Internship_Factor.xlsx
+++ b/Internship_Factor/Internship_Factor.xlsx
@@ -5,23 +5,23 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator\Desktop\量化ddl5.3\HelloGit-master\Internship_Factor\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator\Desktop\HelloGit\Internship_Factor\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="12_ncr:500000_{121355D7-BB4A-4226-97F4-F94737BDD3A1}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="12_ncr:500000_{00AFA4B4-E5E5-4A71-A1A1-DDA1E7C775FE}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView minimized="1" xWindow="0" yWindow="0" windowWidth="20490" windowHeight="6840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="6840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="129">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="138">
   <si>
     <t>['alpha103' 'alpha32' 'alpha35' 'alpha130' 'AccountsPayablesTDays'
  'PEHist250' 'NonCurrentAssetsRatio' 'alpha90']</t>
@@ -469,7 +469,39 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
+    <t>Alpha102</t>
+  </si>
+  <si>
     <t>Alpha148</t>
+  </si>
+  <si>
+    <t>((RANK(CORR((OPEN), SUM(MEAN(VOLUME,60), 9), 6)) &lt; RANK((OPEN - TSMIN(OPEN, 14)))) * -1)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Alpha155</t>
+  </si>
+  <si>
+    <t>SMA(VOLUME,13,2)-SMA(VOLUME,27,2)-SMA(SMA(VOLUME,13,2)-SMA(VOLUME,27,2),10,2)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>['VEMA10' 'Hbeta' 'alpha148' 'alpha155' 'LongTernDebtToAsset' 'STM'
+ 'alpha102' 'AccountsPayablesTRate']</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>LongTernDebtToAsset</t>
+  </si>
+  <si>
+    <t>AccountsPayablesTRate</t>
+  </si>
+  <si>
+    <t>STM</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>SMA(MAX(VOLUME-DELAY(VOLUME,1),0),6,1)/SMA(ABS(VOLUME-DELAY(VOLUME,1)),6,1)*100</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -477,7 +509,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3">
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -495,6 +527,13 @@
       <name val="宋体"/>
       <family val="3"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -539,7 +578,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -548,6 +587,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -570,15 +612,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
+      <xdr:colOff>104775</xdr:colOff>
       <xdr:row>2</xdr:row>
-      <xdr:rowOff>66675</xdr:rowOff>
+      <xdr:rowOff>57150</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>591398</xdr:colOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>10373</xdr:colOff>
       <xdr:row>13</xdr:row>
-      <xdr:rowOff>162202</xdr:rowOff>
+      <xdr:rowOff>152677</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -607,7 +649,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="685800" y="419100"/>
+          <a:off x="790575" y="409575"/>
           <a:ext cx="6077798" cy="1981477"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -659,6 +701,206 @@
         <a:xfrm>
           <a:off x="609600" y="2752725"/>
           <a:ext cx="8640381" cy="5106113"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>54</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>125180</xdr:colOff>
+      <xdr:row>75</xdr:row>
+      <xdr:rowOff>114813</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="图片 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{37D0C972-5ED6-4B5C-B64B-790E4F051344}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="704850" y="9305925"/>
+          <a:ext cx="9707330" cy="3677163"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>647700</xdr:colOff>
+      <xdr:row>79</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>77556</xdr:colOff>
+      <xdr:row>108</xdr:row>
+      <xdr:rowOff>105484</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="7" name="图片 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{71566F21-CB91-4B24-B589-053370DB5D8F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="647700" y="13554075"/>
+          <a:ext cx="9716856" cy="5077534"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>113</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>39153</xdr:colOff>
+      <xdr:row>125</xdr:row>
+      <xdr:rowOff>38375</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="9" name="图片 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EBC220EC-A9D0-4D34-A44D-67CDC451551E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="723900" y="19507200"/>
+          <a:ext cx="7544853" cy="1971950"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>628650</xdr:colOff>
+      <xdr:row>126</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>544157</xdr:colOff>
+      <xdr:row>141</xdr:row>
+      <xdr:rowOff>76560</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="11" name="图片 10">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EC071448-1638-4128-A6CF-BA08C0308F34}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="628650" y="21678900"/>
+          <a:ext cx="8830907" cy="2581635"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -993,8 +1235,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B63"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="C35" sqref="C35"/>
+    <sheetView topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="B24" sqref="B24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -1512,10 +1754,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C502BF67-4668-4972-9C15-100F01DD387D}">
-  <dimension ref="A1:B48"/>
+  <dimension ref="A1:C113"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E1" sqref="E1"/>
+    <sheetView tabSelected="1" topLeftCell="A40" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C49" sqref="C49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -1524,8 +1766,8 @@
       <c r="A1" s="2" t="s">
         <v>86</v>
       </c>
-      <c r="B1" s="3" t="s">
-        <v>23</v>
+      <c r="B1" s="4" t="s">
+        <v>133</v>
       </c>
     </row>
     <row r="2" spans="1:2">
@@ -1538,9 +1780,43 @@
         <v>127</v>
       </c>
     </row>
-    <row r="48" spans="2:2">
-      <c r="B48" t="s">
+    <row r="49" spans="2:3">
+      <c r="B49" t="s">
         <v>128</v>
+      </c>
+      <c r="C49" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="50" spans="2:3">
+      <c r="B50" t="s">
+        <v>129</v>
+      </c>
+      <c r="C50" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="51" spans="2:3">
+      <c r="B51" t="s">
+        <v>131</v>
+      </c>
+      <c r="C51" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="53" spans="2:3">
+      <c r="B53" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="78" spans="2:2">
+      <c r="B78" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="113" spans="2:2">
+      <c r="B113" t="s">
+        <v>136</v>
       </c>
     </row>
   </sheetData>
